--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="95">
   <si>
     <t>Duration</t>
   </si>
@@ -187,13 +187,13 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 06, 2024 3:18:25 PM</t>
-  </si>
-  <si>
-    <t>Feb 06, 2024 3:06:05 PM</t>
-  </si>
-  <si>
-    <t>12 m 19.981 s</t>
+    <t>Feb 08, 2024 1:15:27 PM</t>
+  </si>
+  <si>
+    <t>Feb 08, 2024 1:04:23 PM</t>
+  </si>
+  <si>
+    <t>11 m 3.517 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -202,7 +202,7 @@
     <t>Exam_Center AddEdit Location scenario</t>
   </si>
   <si>
-    <t>37.163 s</t>
+    <t>35.192 s</t>
   </si>
   <si>
     <t>Exam_Center Location feature</t>
@@ -211,7 +211,7 @@
     <t>Checking the Creation of controller User</t>
   </si>
   <si>
-    <t>49.727 s</t>
+    <t>47.400 s</t>
   </si>
   <si>
     <t>Checking the Create Users Functionality</t>
@@ -220,19 +220,19 @@
     <t>Checking the Creation of Proctor User</t>
   </si>
   <si>
-    <t>54.563 s</t>
+    <t>51.684 s</t>
   </si>
   <si>
     <t>Checking the Creation of Examtaker User</t>
   </si>
   <si>
-    <t>56.620 s</t>
+    <t>54.992 s</t>
   </si>
   <si>
     <t>Controller Creating Examinations in Examcenter</t>
   </si>
   <si>
-    <t>32.729 s</t>
+    <t>28.255 s</t>
   </si>
   <si>
     <t>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</t>
@@ -241,19 +241,19 @@
     <t>Creating Schedule for an Examinations</t>
   </si>
   <si>
-    <t>56.654 s</t>
+    <t>52.159 s</t>
   </si>
   <si>
     <t>Enroll the Examination and schedule to the Examtaker</t>
   </si>
   <si>
-    <t>45.674 s</t>
+    <t>39.924 s</t>
   </si>
   <si>
     <t>Create a Time_Slot for the Examination</t>
   </si>
   <si>
-    <t>34.051 s</t>
+    <t>32.352 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</t>
@@ -262,13 +262,13 @@
     <t>Add the Examataker in a Particular TimeSlot</t>
   </si>
   <si>
-    <t>45.624 s</t>
+    <t>43.223 s</t>
   </si>
   <si>
     <t>Provide the Procter Comment to a ExamTaker</t>
   </si>
   <si>
-    <t>55.655 s</t>
+    <t>49.222 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</t>
@@ -277,7 +277,7 @@
     <t>Checking the Examcenter Examtaker Assessment Submission Functionality</t>
   </si>
   <si>
-    <t>59.712 s</t>
+    <t>53.402 s</t>
   </si>
   <si>
     <t>Checking the Examtaker Assessment Submission</t>
@@ -286,7 +286,7 @@
     <t>Testing the Controller Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>1 m 12.390 s</t>
+    <t>56.752 s</t>
   </si>
   <si>
     <t>Checking the bulk upload functionality for All Users</t>
@@ -295,34 +295,31 @@
     <t>Testing the proctor Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>58.753 s</t>
+    <t>53.060 s</t>
   </si>
   <si>
     <t>Testing the Examtaker Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>1 m 2.391 s</t>
-  </si>
-  <si>
-    <t>37.171 s</t>
-  </si>
-  <si>
-    <t>2 m 40.999 s</t>
-  </si>
-  <si>
-    <t>2 m 15.143 s</t>
-  </si>
-  <si>
-    <t>1 m 19.698 s</t>
-  </si>
-  <si>
-    <t>55.656 s</t>
-  </si>
-  <si>
-    <t>59.713 s</t>
-  </si>
-  <si>
-    <t>3 m 13.569 s</t>
+    <t>54.045 s</t>
+  </si>
+  <si>
+    <t>35.200 s</t>
+  </si>
+  <si>
+    <t>2 m 34.122 s</t>
+  </si>
+  <si>
+    <t>2 m 0.387 s</t>
+  </si>
+  <si>
+    <t>1 m 15.582 s</t>
+  </si>
+  <si>
+    <t>53.403 s</t>
+  </si>
+  <si>
+    <t>2 m 43.870 s</t>
   </si>
 </sst>
 </file>
@@ -7790,7 +7787,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="FD41" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="D907" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8434,7 +8431,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="229" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E26" s="230" t="n">
         <v>1.0</v>
@@ -8464,7 +8461,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="241" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="242" t="n">
         <v>1.0</v>
@@ -8494,7 +8491,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="253" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="254" t="n">
         <v>3.0</v>

--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -187,13 +187,13 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 08, 2024 1:15:27 PM</t>
-  </si>
-  <si>
-    <t>Feb 08, 2024 1:04:23 PM</t>
-  </si>
-  <si>
-    <t>11 m 3.517 s</t>
+    <t>Feb 12, 2024 3:05:30 PM</t>
+  </si>
+  <si>
+    <t>Feb 12, 2024 2:54:42 PM</t>
+  </si>
+  <si>
+    <t>10 m 48.741 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -202,7 +202,7 @@
     <t>Exam_Center AddEdit Location scenario</t>
   </si>
   <si>
-    <t>35.192 s</t>
+    <t>32.150 s</t>
   </si>
   <si>
     <t>Exam_Center Location feature</t>
@@ -211,7 +211,7 @@
     <t>Checking the Creation of controller User</t>
   </si>
   <si>
-    <t>47.400 s</t>
+    <t>46.312 s</t>
   </si>
   <si>
     <t>Checking the Create Users Functionality</t>
@@ -220,19 +220,19 @@
     <t>Checking the Creation of Proctor User</t>
   </si>
   <si>
-    <t>51.684 s</t>
+    <t>50.386 s</t>
   </si>
   <si>
     <t>Checking the Creation of Examtaker User</t>
   </si>
   <si>
-    <t>54.992 s</t>
+    <t>52.243 s</t>
   </si>
   <si>
     <t>Controller Creating Examinations in Examcenter</t>
   </si>
   <si>
-    <t>28.255 s</t>
+    <t>27.006 s</t>
   </si>
   <si>
     <t>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</t>
@@ -241,19 +241,19 @@
     <t>Creating Schedule for an Examinations</t>
   </si>
   <si>
-    <t>52.159 s</t>
+    <t>48.652 s</t>
   </si>
   <si>
     <t>Enroll the Examination and schedule to the Examtaker</t>
   </si>
   <si>
-    <t>39.924 s</t>
+    <t>39.071 s</t>
   </si>
   <si>
     <t>Create a Time_Slot for the Examination</t>
   </si>
   <si>
-    <t>32.352 s</t>
+    <t>32.266 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</t>
@@ -262,13 +262,13 @@
     <t>Add the Examataker in a Particular TimeSlot</t>
   </si>
   <si>
-    <t>43.223 s</t>
+    <t>44.229 s</t>
   </si>
   <si>
     <t>Provide the Procter Comment to a ExamTaker</t>
   </si>
   <si>
-    <t>49.222 s</t>
+    <t>43.916 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</t>
@@ -277,7 +277,7 @@
     <t>Checking the Examcenter Examtaker Assessment Submission Functionality</t>
   </si>
   <si>
-    <t>53.402 s</t>
+    <t>1 m 3.994 s</t>
   </si>
   <si>
     <t>Checking the Examtaker Assessment Submission</t>
@@ -286,7 +286,7 @@
     <t>Testing the Controller Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>56.752 s</t>
+    <t>55.339 s</t>
   </si>
   <si>
     <t>Checking the bulk upload functionality for All Users</t>
@@ -295,31 +295,31 @@
     <t>Testing the proctor Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>53.060 s</t>
+    <t>50.775 s</t>
   </si>
   <si>
     <t>Testing the Examtaker Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>54.045 s</t>
-  </si>
-  <si>
-    <t>35.200 s</t>
-  </si>
-  <si>
-    <t>2 m 34.122 s</t>
-  </si>
-  <si>
-    <t>2 m 0.387 s</t>
-  </si>
-  <si>
-    <t>1 m 15.582 s</t>
-  </si>
-  <si>
-    <t>53.403 s</t>
-  </si>
-  <si>
-    <t>2 m 43.870 s</t>
+    <t>50.700 s</t>
+  </si>
+  <si>
+    <t>32.154 s</t>
+  </si>
+  <si>
+    <t>2 m 28.972 s</t>
+  </si>
+  <si>
+    <t>1 m 54.750 s</t>
+  </si>
+  <si>
+    <t>1 m 16.509 s</t>
+  </si>
+  <si>
+    <t>1 m 3.995 s</t>
+  </si>
+  <si>
+    <t>2 m 36.828 s</t>
   </si>
 </sst>
 </file>
@@ -3675,7 +3675,7 @@
                   <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>11.0</c:v>
@@ -7787,7 +7787,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="D907" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="9B01" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8102,10 +8102,10 @@
         <v>29</v>
       </c>
       <c r="G31" s="139" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="H31" s="140" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="I31" s="141"/>
       <c r="J31" s="142"/>
@@ -8445,10 +8445,10 @@
         <v>53</v>
       </c>
       <c r="J26" s="235" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="K26" s="236" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="L26" s="237"/>
       <c r="M26" s="238"/>
@@ -8587,7 +8587,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>167.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>167.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
   <si>
     <t>Duration</t>
   </si>
@@ -187,73 +187,25 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 12, 2024 3:05:30 PM</t>
+    <t>Feb 12, 2024 5:44:43 PM</t>
   </si>
   <si>
-    <t>Feb 12, 2024 2:54:42 PM</t>
+    <t>Feb 12, 2024 5:41:26 PM</t>
   </si>
   <si>
-    <t>10 m 48.741 s</t>
+    <t>Feb 12, 2024 5:44:42 PM</t>
+  </si>
+  <si>
+    <t>3 m 16.328 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Exam_Center AddEdit Location scenario</t>
-  </si>
-  <si>
-    <t>32.150 s</t>
-  </si>
-  <si>
-    <t>Exam_Center Location feature</t>
-  </si>
-  <si>
-    <t>Checking the Creation of controller User</t>
-  </si>
-  <si>
-    <t>46.312 s</t>
-  </si>
-  <si>
-    <t>Checking the Create Users Functionality</t>
-  </si>
-  <si>
-    <t>Checking the Creation of Proctor User</t>
-  </si>
-  <si>
-    <t>50.386 s</t>
-  </si>
-  <si>
-    <t>Checking the Creation of Examtaker User</t>
-  </si>
-  <si>
-    <t>52.243 s</t>
-  </si>
-  <si>
-    <t>Controller Creating Examinations in Examcenter</t>
-  </si>
-  <si>
-    <t>27.006 s</t>
-  </si>
-  <si>
-    <t>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</t>
-  </si>
-  <si>
-    <t>Creating Schedule for an Examinations</t>
-  </si>
-  <si>
-    <t>48.652 s</t>
-  </si>
-  <si>
-    <t>Enroll the Examination and schedule to the Examtaker</t>
-  </si>
-  <si>
-    <t>39.071 s</t>
-  </si>
-  <si>
     <t>Create a Time_Slot for the Examination</t>
   </si>
   <si>
-    <t>32.266 s</t>
+    <t>36.765 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</t>
@@ -262,13 +214,13 @@
     <t>Add the Examataker in a Particular TimeSlot</t>
   </si>
   <si>
-    <t>44.229 s</t>
+    <t>50.501 s</t>
   </si>
   <si>
     <t>Provide the Procter Comment to a ExamTaker</t>
   </si>
   <si>
-    <t>43.916 s</t>
+    <t>47.570 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</t>
@@ -277,49 +229,13 @@
     <t>Checking the Examcenter Examtaker Assessment Submission Functionality</t>
   </si>
   <si>
-    <t>1 m 3.994 s</t>
+    <t>56.383 s</t>
   </si>
   <si>
     <t>Checking the Examtaker Assessment Submission</t>
   </si>
   <si>
-    <t>Testing the Controller Bulk Upload Functionality</t>
-  </si>
-  <si>
-    <t>55.339 s</t>
-  </si>
-  <si>
-    <t>Checking the bulk upload functionality for All Users</t>
-  </si>
-  <si>
-    <t>Testing the proctor Bulk Upload Functionality</t>
-  </si>
-  <si>
-    <t>50.775 s</t>
-  </si>
-  <si>
-    <t>Testing the Examtaker Bulk Upload Functionality</t>
-  </si>
-  <si>
-    <t>50.700 s</t>
-  </si>
-  <si>
-    <t>32.154 s</t>
-  </si>
-  <si>
-    <t>2 m 28.972 s</t>
-  </si>
-  <si>
-    <t>1 m 54.750 s</t>
-  </si>
-  <si>
-    <t>1 m 16.509 s</t>
-  </si>
-  <si>
-    <t>1 m 3.995 s</t>
-  </si>
-  <si>
-    <t>2 m 36.828 s</t>
+    <t>1 m 27.319 s</t>
   </si>
 </sst>
 </file>
@@ -327,7 +243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="222" x14ac:knownFonts="1">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,762 +507,6 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1681,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1937,10 +1097,10 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1955,13 +1115,13 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
@@ -1970,7 +1130,7 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1982,46 +1142,46 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -2033,420 +1193,6 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3594,100 +2340,40 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$35</c:f>
+              <c:f>Scenarios!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Exam_Center AddEdit Location scenario</c:v>
+                  <c:v>Create a Time_Slot for the Examination</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Checking the Creation of controller User</c:v>
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Checking the Creation of Proctor User</c:v>
+                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Checking the Creation of Examtaker User</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Controller Creating Examinations in Examcenter</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Creating Schedule for an Examinations</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Enroll the Examination and schedule to the Examtaker</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Testing the Controller Bulk Upload Functionality</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Testing the proctor Bulk Upload Functionality</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Testing the Examtaker Bulk Upload Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$35</c:f>
+              <c:f>Scenarios!$H$22:$H$25</c:f>
               <c:numCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3744,57 +2430,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$35</c:f>
+              <c:f>Scenarios!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Exam_Center AddEdit Location scenario</c:v>
+                  <c:v>Create a Time_Slot for the Examination</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Checking the Creation of controller User</c:v>
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Checking the Creation of Proctor User</c:v>
+                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Checking the Creation of Examtaker User</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Controller Creating Examinations in Examcenter</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Creating Schedule for an Examinations</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Enroll the Examination and schedule to the Examtaker</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Testing the Controller Bulk Upload Functionality</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Testing the proctor Bulk Upload Functionality</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Testing the Examtaker Bulk Upload Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$35</c:f>
+              <c:f>Scenarios!$J$22:$J$25</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3850,57 +2506,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$35</c:f>
+              <c:f>Scenarios!$B$22:$B$25</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Exam_Center AddEdit Location scenario</c:v>
+                  <c:v>Create a Time_Slot for the Examination</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Checking the Creation of controller User</c:v>
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Checking the Creation of Proctor User</c:v>
+                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Checking the Creation of Examtaker User</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Controller Creating Examinations in Examcenter</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Creating Schedule for an Examinations</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Enroll the Examination and schedule to the Examtaker</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Testing the Controller Bulk Upload Functionality</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Testing the proctor Bulk Upload Functionality</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Testing the Examtaker Bulk Upload Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$35</c:f>
+              <c:f>Scenarios!$I$22:$I$25</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4666,58 +3292,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$28</c:f>
+              <c:f>Features!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Exam_Center Location feature</c:v>
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Checking the Create Users Functionality</c:v>
+                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Checking the Examtaker Assessment Submission</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Checking the bulk upload functionality for All Users</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22:$F$28</c:f>
+              <c:f>Features!$F$22:$F$24</c:f>
               <c:numCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4774,36 +3376,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$28</c:f>
+              <c:f>Features!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Exam_Center Location feature</c:v>
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Checking the Create Users Functionality</c:v>
+                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Checking the Examtaker Assessment Submission</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Checking the bulk upload functionality for All Users</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22:$H$28</c:f>
+              <c:f>Features!$H$22:$H$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4859,36 +3449,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$28</c:f>
+              <c:f>Features!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Exam_Center Location feature</c:v>
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Checking the Create Users Functionality</c:v>
+                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Checking the Examtaker Assessment Submission</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Checking the bulk upload functionality for All Users</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22:$G$28</c:f>
+              <c:f>Features!$G$22:$G$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -7787,7 +6365,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="9B01" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="E2CF" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7796,7 +6374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J35"/>
+  <dimension ref="B20:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -7862,50 +6440,50 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="58" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="H22" s="59" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="I22" s="60"/>
       <c r="J22" s="61"/>
     </row>
     <row r="23">
       <c r="B23" s="62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="66" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="67" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="H23" s="68" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="70"/>
@@ -7921,294 +6499,44 @@
         <v>61</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" s="75" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="76" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="H24" s="77" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="I24" s="78"/>
       <c r="J24" s="79"/>
     </row>
     <row r="25">
       <c r="B25" s="80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="81" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="83" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F25" s="84" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="85" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="H25" s="86" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="I25" s="87"/>
       <c r="J25" s="88"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="94" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H26" s="95" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I26" s="96"/>
-      <c r="J26" s="97"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="103" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="H27" s="104" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="112" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H28" s="113" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I28" s="114"/>
-      <c r="J28" s="115"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="120" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="121" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="H29" s="122" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I29" s="123"/>
-      <c r="J29" s="124"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="125" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="126" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="127" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="128" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="129" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="130" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H30" s="131" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I30" s="132"/>
-      <c r="J30" s="133"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="134" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="135" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="136" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="138" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="139" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H31" s="140" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I31" s="141"/>
-      <c r="J31" s="142"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="144" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="145" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="146" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="147" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="148" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H32" s="149" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I32" s="150"/>
-      <c r="J32" s="151"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="153" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="155" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="156" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="157" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H33" s="158" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I33" s="159"/>
-      <c r="J33" s="160"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="161" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="163" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="164" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="165" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="166" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H34" s="167" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I34" s="168"/>
-      <c r="J34" s="169"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="170" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="171" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="173" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="175" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H35" s="176" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I35" s="177"/>
-      <c r="J35" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8224,7 +6552,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:M28"/>
+  <dimension ref="B18:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8304,214 +6632,94 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="179" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="180" t="s">
+      <c r="B22" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="181" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="182" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="183" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="184"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="186" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="187" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K22" s="188" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="L22" s="189"/>
-      <c r="M22" s="190"/>
+      <c r="D22" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="92" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="93" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="97" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K22" s="98" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L22" s="99"/>
+      <c r="M22" s="100"/>
     </row>
     <row r="23">
-      <c r="B23" s="191" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="192" t="s">
+      <c r="B23" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="193" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="194" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F23" s="195" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="196"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="198" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="199" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="K23" s="200" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="L23" s="201"/>
-      <c r="M23" s="202"/>
+      <c r="D23" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="106"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="109" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="K23" s="110" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L23" s="111"/>
+      <c r="M23" s="112"/>
     </row>
     <row r="24">
-      <c r="B24" s="203" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="204" t="s">
+      <c r="B24" s="113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="205" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="206" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F24" s="207" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G24" s="208"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="210" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="211" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="K24" s="212" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="L24" s="213"/>
-      <c r="M24" s="214"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="215" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="216" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="217" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="218" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F25" s="219" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G25" s="220"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="222" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="223" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="K25" s="224" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L25" s="225"/>
-      <c r="M25" s="226"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="227" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="228" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="229" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="230" t="n">
+      <c r="D24" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="116" t="n">
         <v>1.0</v>
       </c>
-      <c r="F26" s="231" t="n">
+      <c r="F24" s="117" t="n">
         <v>1.0</v>
       </c>
-      <c r="G26" s="232"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="234" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="235" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="K26" s="236" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L26" s="237"/>
-      <c r="M26" s="238"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="239" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="240" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="241" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="242" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F27" s="243" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" s="244"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="246" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="247" t="n">
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="121" t="n">
         <v>11.0</v>
       </c>
-      <c r="K27" s="248" t="n">
+      <c r="K24" s="122" t="n">
         <v>11.0</v>
       </c>
-      <c r="L27" s="249"/>
-      <c r="M27" s="250"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="251" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="252" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="253" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="254" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F28" s="255" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G28" s="256"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="258" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="259" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="K28" s="260" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="L28" s="261"/>
-      <c r="M28" s="262"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8575,19 +6783,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>166.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8635,28 +6843,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>19</v>
       </c>
       <c r="D5" t="n" s="0">
         <f>SUM(D2:D4)</f>
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>166.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8664,16 +6872,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>Duration</t>
   </si>
@@ -187,55 +187,31 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 12, 2024 5:44:43 PM</t>
+    <t>Feb 13, 2024 4:28:11 PM</t>
   </si>
   <si>
-    <t>Feb 12, 2024 5:41:26 PM</t>
+    <t>Feb 13, 2024 4:27:27 PM</t>
   </si>
   <si>
-    <t>Feb 12, 2024 5:44:42 PM</t>
+    <t>Feb 13, 2024 4:28:10 PM</t>
   </si>
   <si>
-    <t>3 m 16.328 s</t>
+    <t>43.680 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Create a Time_Slot for the Examination</t>
-  </si>
-  <si>
-    <t>36.765 s</t>
-  </si>
-  <si>
-    <t>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</t>
-  </si>
-  <si>
-    <t>Add the Examataker in a Particular TimeSlot</t>
-  </si>
-  <si>
-    <t>50.501 s</t>
-  </si>
-  <si>
     <t>Provide the Procter Comment to a ExamTaker</t>
   </si>
   <si>
-    <t>47.570 s</t>
+    <t>42.931 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</t>
   </si>
   <si>
-    <t>Checking the Examcenter Examtaker Assessment Submission Functionality</t>
-  </si>
-  <si>
-    <t>56.383 s</t>
-  </si>
-  <si>
-    <t>Checking the Examtaker Assessment Submission</t>
-  </si>
-  <si>
-    <t>1 m 27.319 s</t>
+    <t>42.938 s</t>
   </si>
 </sst>
 </file>
@@ -243,7 +219,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="84" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,284 +333,6 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -841,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1016,10 +714,10 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -1034,165 +732,12 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2340,40 +1885,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$25</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Provide the Procter Comment to a ExamTaker</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$25</c:f>
+              <c:f>Scenarios!$H$22</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,27 +1957,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$25</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Provide the Procter Comment to a ExamTaker</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$25</c:f>
+              <c:f>Scenarios!$J$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2506,27 +2024,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$25</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Provide the Procter Comment to a ExamTaker</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$25</c:f>
+              <c:f>Scenarios!$I$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3292,33 +2801,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$24</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Checking the Examtaker Assessment Submission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22:$F$24</c:f>
+              <c:f>Features!$F$22</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3376,24 +2873,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$24</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Checking the Examtaker Assessment Submission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22:$H$24</c:f>
+              <c:f>Features!$H$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3449,24 +2940,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$24</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Checking the Examtaker Assessment Submission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22:$G$24</c:f>
+              <c:f>Features!$G$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -6365,7 +5850,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="E2CF" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="8533" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6374,7 +5859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J25"/>
+  <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -6455,88 +5940,13 @@
         <v>29</v>
       </c>
       <c r="G22" s="58" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="H22" s="59" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="I22" s="60"/>
       <c r="J22" s="61"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="67" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H23" s="68" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="76" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H24" s="77" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="85" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="H25" s="86" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I25" s="87"/>
-      <c r="J25" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6552,7 +5962,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:M24"/>
+  <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -6632,94 +6042,34 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="92" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="93" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="96" t="s">
+      <c r="D22" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="97" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="K22" s="98" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="106"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="109" t="n">
+      <c r="J22" s="70" t="n">
         <v>12.0</v>
       </c>
-      <c r="K23" s="110" t="n">
+      <c r="K22" s="71" t="n">
         <v>12.0</v>
       </c>
-      <c r="L23" s="111"/>
-      <c r="M23" s="112"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="114" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="115" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="121" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="K24" s="122" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L24" s="123"/>
-      <c r="M24" s="124"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6783,19 +6133,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>52.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6850,21 +6200,21 @@
       </c>
       <c r="D5" t="n" s="0">
         <f>SUM(D2:D4)</f>
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>52.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -187,16 +187,16 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 13, 2024 4:28:11 PM</t>
+    <t>Feb 14, 2024 3:17:43 PM</t>
   </si>
   <si>
-    <t>Feb 13, 2024 4:27:27 PM</t>
+    <t>Feb 14, 2024 3:16:47 PM</t>
   </si>
   <si>
-    <t>Feb 13, 2024 4:28:10 PM</t>
+    <t>Feb 14, 2024 3:17:42 PM</t>
   </si>
   <si>
-    <t>43.680 s</t>
+    <t>55.617 s</t>
   </si>
   <si>
     <t>100%</t>
@@ -205,13 +205,13 @@
     <t>Provide the Procter Comment to a ExamTaker</t>
   </si>
   <si>
-    <t>42.931 s</t>
+    <t>54.851 s</t>
   </si>
   <si>
     <t>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</t>
   </si>
   <si>
-    <t>42.938 s</t>
+    <t>54.856 s</t>
   </si>
 </sst>
 </file>
@@ -1900,7 +1900,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.0</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,7 +5850,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="8533" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="99D1" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5940,10 +5940,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="58" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H22" s="59" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="I22" s="60"/>
       <c r="J22" s="61"/>
@@ -6063,10 +6063,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="70" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K22" s="71" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="L22" s="72"/>
       <c r="M22" s="73"/>
@@ -6145,7 +6145,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>Duration</t>
   </si>
@@ -187,28 +187,37 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 15, 2024 6:01:51 PM</t>
+    <t>Feb 15, 2024 7:18:08 PM</t>
   </si>
   <si>
-    <t>Feb 15, 2024 6:00:55 PM</t>
+    <t>Feb 15, 2024 7:16:28 PM</t>
   </si>
   <si>
-    <t>55.847 s</t>
+    <t>Feb 15, 2024 7:18:07 PM</t>
+  </si>
+  <si>
+    <t>1 m 39.208 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Provide the Procter Comment to a ExamTaker</t>
+    <t>Create a Time_Slot for the Examination</t>
   </si>
   <si>
-    <t>55.158 s</t>
+    <t>35.363 s</t>
   </si>
   <si>
-    <t>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</t>
+    <t>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</t>
   </si>
   <si>
-    <t>55.162 s</t>
+    <t>Add the Examataker in a Particular TimeSlot</t>
+  </si>
+  <si>
+    <t>1 m 3.123 s</t>
+  </si>
+  <si>
+    <t>1 m 38.510 s</t>
   </si>
 </sst>
 </file>
@@ -216,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +309,56 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -536,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -711,10 +770,10 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -729,12 +788,39 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1882,22 +1968,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
+                  <c:v>Create a Time_Slot for the Examination</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22</c:f>
+              <c:f>Scenarios!$H$22:$H$23</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>13.0</c:v>
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,18 +2046,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
+                  <c:v>Create a Time_Slot for the Examination</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22</c:f>
+              <c:f>Scenarios!$J$22:$J$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2021,18 +2116,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22</c:f>
+              <c:f>Scenarios!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Provide the Procter Comment to a ExamTaker</c:v>
+                  <c:v>Create a Time_Slot for the Examination</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22</c:f>
+              <c:f>Scenarios!$I$22:$I$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2802,7 +2900,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2813,7 +2911,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,7 +2972,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2941,7 +3039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Procter Comment, Reset the Examination</c:v>
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5847,7 +5945,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="8693" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="DE75" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5856,7 +5954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J22"/>
+  <dimension ref="B20:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5922,28 +6020,53 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="58" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="H22" s="59" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="I22" s="60"/>
       <c r="J22" s="61"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="67" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H23" s="68" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6039,34 +6162,34 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="63" t="s">
+      <c r="B22" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F22" s="66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="70" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="K22" s="71" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L22" s="72"/>
-      <c r="M22" s="73"/>
+      <c r="D22" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F22" s="75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="79" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="K22" s="80" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="L22" s="81"/>
+      <c r="M22" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6136,13 +6259,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>13.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6190,7 +6313,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>19</v>
@@ -6204,14 +6327,14 @@
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>13.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6219,16 +6342,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -13,29 +13,65 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId2"/>
+    <sheet name="Features" sheetId="19" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="22" r:id="rId5"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8" state="veryHidden"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
     <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
     <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart71">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mounishsaha</author>
+  </authors>
+  <commentList>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mounishsaha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>Duration</t>
   </si>
@@ -94,6 +130,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -106,34 +145,88 @@
     <t>SCENARIO STATUS</t>
   </si>
   <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:21 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:19 PM</t>
+  </si>
+  <si>
+    <t>0.249 s</t>
+  </si>
+  <si>
+    <t>Feature Fail</t>
+  </si>
+  <si>
+    <t>Scenario Fail</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>0.013 s</t>
+    <t>0.016 s</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>0.027 s</t>
   </si>
   <si>
     <t>TAG NAME</t>
@@ -142,10 +235,10 @@
     <t>tag</t>
   </si>
   <si>
-    <t>STEP / HOOK TEXT</t>
+    <t>STACKTRACE</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>STEP / HOOK TEXT</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -161,9 +254,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
   </si>
   <si>
     <t>SKIPPED</t>
@@ -187,37 +277,65 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 15, 2024 7:18:08 PM</t>
+    <t>Feb 16, 2024 10:47:35 AM</t>
   </si>
   <si>
-    <t>Feb 15, 2024 7:16:28 PM</t>
+    <t>Feb 16, 2024 10:46:37 AM</t>
   </si>
   <si>
-    <t>Feb 15, 2024 7:18:07 PM</t>
+    <t>57.685 s</t>
   </si>
   <si>
-    <t>1 m 39.208 s</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>55%</t>
   </si>
   <si>
-    <t>Create a Time_Slot for the Examination</t>
+    <t>Checking the Examtaker Assessment Submission</t>
   </si>
   <si>
-    <t>35.363 s</t>
+    <t>Checking the Examcenter Examtaker Assessment Submission Functionality</t>
   </si>
   <si>
-    <t>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</t>
+    <t>56.570 s</t>
   </si>
   <si>
-    <t>Add the Examataker in a Particular TimeSlot</t>
+    <t>56.577 s</t>
   </si>
   <si>
-    <t>1 m 3.123 s</t>
+    <t>And clicks on begin test</t>
   </si>
   <si>
-    <t>1 m 38.510 s</t>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//button[@aria-label='Begin Test']"}
+  (Session info: edge-headless-shell=121.0.2277.112)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.edge.EdgeDriver
+Command: [2b31f382a92f9006eecf7fbfabeaf647, findElement {using=xpath, value=//button[@aria-label='Begin Test']}]
+Capabilities {acceptInsecureCerts: false, browserName: edge-headless-shell, browserVersion: 121.0.2277.112, fedcm:accounts: true, ms:edgeOptions: {debuggerAddress: localhost:53692}, msedge: {msedgedriverVersion: 121.0.2277.128 (33d347b6876..., userDataDir: C:\Users\SAPPHI~1\AppData\L...}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:53692/devtoo..., se:cdpVersion: 121.0.2277.112, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2b31f382a92f9006eecf7fbfabeaf647
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:77)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:499)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:480)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.createException(W3CHttpResponseCodec.java:200)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:133)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:52)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:191)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:200)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:175)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:607)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:364)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:358)
+	at com.Examcenter.pages.ExamtakerSubmissionPage.begintest(ExamtakerSubmissionPage.java:59)
+	at StepDefinitions.AssessmentSubmission.clicks_on_begin_test(AssessmentSubmission.java:25)
+	at ✽.clicks on begin test(file:///E:/FocalPoint/FPK12-AUTOMATION-TEST-2.0/src/test/resources/Features/AssessmentSubmission.feature:10)
+</t>
   </si>
 </sst>
 </file>
@@ -225,7 +343,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +361,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,34 +402,40 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -313,6 +467,78 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
       <color rgb="000000"/>
     </font>
@@ -320,7 +546,7 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -338,7 +564,7 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF0000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -370,57 +596,7 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="00FF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color rgb="FF0000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="FFFF00"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color rgb="00FF00"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -474,6 +650,26 @@
       <sz val="11.0"/>
       <color rgb="FFFF00"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,12 +679,53 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,233 +832,302 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,24 +1177,36 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -898,10 +1216,355 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
+          <c:x val="7.3440412897698315E-2"/>
+          <c:y val="0.10261559944911276"/>
+          <c:w val="0.89710845542622875"/>
+          <c:h val="0.85411987031170589"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21E5-4428-A15E-036A9644B09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21E5-4428-A15E-036A9644B09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21E5-4428-A15E-036A9644B09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62483072"/>
+        <c:axId val="62415232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62483072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62415232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62415232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62483072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.33104174160971E-2"/>
+          <c:y val="0.17399131020088512"/>
+          <c:w val="0.93298799578986635"/>
+          <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -943,7 +1606,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000001-69CD-4D95-9BCF-D378A2484937}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -968,7 +1631,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000003-69CD-4D95-9BCF-D378A2484937}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -993,10 +1656,39 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000005-69CD-4D95-9BCF-D378A2484937}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$C$2:$C$4</c:f>
@@ -1023,12 +1715,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
+              <c16:uniqueId val="{00000006-69CD-4D95-9BCF-D378A2484937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1057,14 +1755,385 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62946688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62968960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62968960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62946688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1108,10 +2177,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1181,14 +2250,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-F102-4FE7-A7E0-DABD087B37CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1262,7 +2331,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-F102-4FE7-A7E0-DABD087B37CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1329,14 +2398,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-F102-4FE7-A7E0-DABD087B37CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1350,11 +2419,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="62946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +2433,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="62968960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1372,7 +2441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="62968960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +2474,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="62946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1429,7 +2498,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1459,12 +2528,378 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenarios</a:t>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8313518273888155E-2"/>
+          <c:y val="0.10274354471012281"/>
+          <c:w val="0.9323117569352708"/>
+          <c:h val="0.8539379810924318"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62860288"/>
+        <c:axId val="62870272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62860288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62870272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62870272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62860288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1473,8 +2908,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
+          <c:x val="1.1527224435590979E-2"/>
+          <c:y val="5.3411103774677782E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1486,10 +2921,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
+          <c:x val="7.2613864443415166E-2"/>
+          <c:y val="0.11008420605172034"/>
+          <c:w val="0.90409526015130459"/>
+          <c:h val="0.85983853317969527"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1531,7 +2966,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000001-1925-49B6-827A-B853D3337F7F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1556,7 +2991,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000003-1925-49B6-827A-B853D3337F7F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1581,34 +3016,71 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000005-1925-49B6-827A-B853D3337F7F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
+                  <c:v>Features Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
+                  <c:v>Features Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
+                  <c:v>Features Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1616,7 +3088,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
+              <c16:uniqueId val="{00000006-1925-49B6-827A-B853D3337F7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1645,14 +3117,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1676,12 +3148,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Steps</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1690,8 +3162,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
+          <c:x val="2.6557632398753896E-2"/>
+          <c:y val="7.6408787010506206E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1703,10 +3175,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
+          <c:x val="6.4384183285500524E-2"/>
+          <c:y val="6.4419827177763234E-2"/>
+          <c:w val="0.91950658620943415"/>
+          <c:h val="0.90211763644157661"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1748,7 +3220,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000001-9043-498D-B57C-B9E4CCFA9E88}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1773,7 +3245,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000003-9043-498D-B57C-B9E4CCFA9E88}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1798,42 +3270,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000005-9043-498D-B57C-B9E4CCFA9E88}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
+                  <c:v>Scenarios Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
+                  <c:v>Scenarios Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
+                  <c:v>Scenarios Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
+              <c16:uniqueId val="{00000006-9043-498D-B57C-B9E4CCFA9E88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1862,14 +3371,268 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8754798226494428E-3"/>
+          <c:y val="5.9065638181061884E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4524060319569115E-2"/>
+          <c:y val="0.10094890069649767"/>
+          <c:w val="0.91911729229686112"/>
+          <c:h val="0.86206927760676177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-47B5-4118-A95C-5D61CE0D4ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1895,7 +3658,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -1913,9 +3676,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.3309046751669701E-2"/>
-          <c:y val="0.10500003204542271"/>
+          <c:y val="9.7816794160272044E-2"/>
           <c:w val="0.95333333333333337"/>
-          <c:h val="0.85236429602767994"/>
+          <c:h val="0.85929820242151389"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1968,35 +3731,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$23</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$23</c:f>
+              <c:f>Scenarios!$H$22</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000000-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2046,27 +3803,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$23</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$23</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$J$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000001-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2093,6 +3852,16 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C270-4FB3-8298-7BD9F9C395E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2116,27 +3885,29 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$23</c:f>
+              <c:f>Scenarios!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Create a Time_Slot for the Examination</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$23</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$I$22</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000003-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2150,11 +3921,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
+        <c:axId val="62860288"/>
+        <c:axId val="62870272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97185152"/>
+        <c:axId val="62860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +3935,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
+        <c:crossAx val="62870272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +3943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97201536"/>
+        <c:axId val="62870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,7 +3961,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -2204,7 +3975,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
+        <c:crossAx val="62860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2227,13 +3998,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2256,7 +4027,7 @@
           <c:yMode val="edge"/>
           <c:x val="2.2858134693485639E-2"/>
           <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410535"/>
+          <c:w val="0.96715927750410513"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -2299,7 +4070,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000001-96B9-4095-8F86-417028E30CA0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2324,7 +4095,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000003-96B9-4095-8F86-417028E30CA0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2349,10 +4120,39 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000005-96B9-4095-8F86-417028E30CA0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$E$2:$E$4</c:f>
@@ -2377,14 +4177,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              <c16:uniqueId val="{00000006-96B9-4095-8F86-417028E30CA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2418,14 +4224,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2469,10 +4275,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2542,14 +4348,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000000-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2623,7 +4429,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000001-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2690,14 +4496,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000002-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2711,11 +4517,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="62946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,7 +4531,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="62968960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2733,7 +4539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="62968960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +4572,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="62946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2790,13 +4596,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2822,7 +4628,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -2840,10 +4646,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
+          <c:x val="3.3339410513521725E-2"/>
+          <c:y val="9.8103616813294256E-2"/>
+          <c:w val="0.95329079307201459"/>
+          <c:h val="0.85888563049853373"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2900,7 +4706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2908,17 +4714,12 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$F$22</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000000-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2972,7 +4773,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2985,7 +4786,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000001-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3039,7 +4840,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3047,12 +4848,17 @@
           <c:val>
             <c:numRef>
               <c:f>Features!$G$22</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000002-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3066,11 +4872,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
+        <c:axId val="62483072"/>
+        <c:axId val="62415232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97540352"/>
+        <c:axId val="62483072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +4886,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
+        <c:crossAx val="62415232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3088,7 +4894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97550336"/>
+        <c:axId val="62415232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3107,7 +4913,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -3121,7 +4927,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
+        <c:crossAx val="62483072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3146,565 +4952,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Authors</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3712,675 +4960,1604 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34077</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Chart 33"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="38" name="Group 37"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="171449" y="85725"/>
+          <a:ext cx="12058651" cy="3343276"/>
+          <a:chOff x="171449" y="85725"/>
+          <a:chExt cx="12058651" cy="3343276"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="32" name="Group 31"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="171449" y="85725"/>
+            <a:ext cx="12058651" cy="3343276"/>
+            <a:chOff x="171449" y="85725"/>
+            <a:chExt cx="12058651" cy="3343276"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="95250"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8458199" y="95250"/>
+              <a:ext cx="3749040" cy="320040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Start Time</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Rectangle 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8467725" y="457200"/>
+              <a:ext cx="3749040" cy="320040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>End Time</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1000125" y="95249"/>
+              <a:ext cx="2924175" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+                <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>0.249 s</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
+              <a:off x="9420225" y="104775"/>
+              <a:ext cx="2781300" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="9420225" y="466725"/>
+              <a:ext cx="2809875" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="8" name="Group 7"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171449" y="85725"/>
+              <a:ext cx="12045316" cy="3343276"/>
+              <a:chOff x="152399" y="89660"/>
+              <a:chExt cx="12045316" cy="3107067"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="9" name="Group 8"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="152399" y="665043"/>
+                <a:ext cx="3749040" cy="2531684"/>
+                <a:chOff x="152399" y="665043"/>
+                <a:chExt cx="3749040" cy="2531684"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="24" name="Rectangle 23"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="152399" y="784621"/>
+                  <a:ext cx="3749040" cy="2379428"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="25" name="Group 24"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="266701" y="665043"/>
+                  <a:ext cx="3611879" cy="2531684"/>
+                  <a:chOff x="266701" y="665043"/>
+                  <a:chExt cx="3611879" cy="2531684"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="26" name="Group 25"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="2781300" y="829451"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                    <a:chOff x="2781300" y="829451"/>
+                    <a:chExt cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="2781300" y="829451"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="roundRect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175"/>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="lt1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>PASSED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>FAILED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>SKIPPED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>TOTAL</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="29" name="TextBox 28"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3390900" y="833283"/>
+                      <a:ext cx="466725" cy="247651"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>1</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="27F959"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="30" name="TextBox 29"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3381375" y="996552"/>
+                      <a:ext cx="485776" cy="247651"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>2</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="31" name="TextBox 30"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3381375" y="1142122"/>
+                      <a:ext cx="485775" cy="257174"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>1</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="27" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="266701" y="665043"/>
+                  <a:ext cx="2590800" cy="2531684"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="3981448" y="89660"/>
+                <a:ext cx="4389120" cy="3089362"/>
+                <a:chOff x="3981448" y="89660"/>
+                <a:chExt cx="4389120" cy="3089362"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="18" name="Rectangle 17"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3981448" y="98510"/>
+                  <a:ext cx="4389120" cy="3059264"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7134225" y="156698"/>
+                  <a:ext cx="1188720" cy="849796"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="3175"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>PASSED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>FAILED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>SKIPPED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>TOTAL</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$2">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="20" name="TextBox 19"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7791450" y="195938"/>
+                  <a:ext cx="533400" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="51FF21"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$3">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="21" name="TextBox 20"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7791449" y="368060"/>
+                  <a:ext cx="533401" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$4">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="22" name="TextBox 21"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7800975" y="531332"/>
+                  <a:ext cx="523875" cy="257174"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:graphicFrame macro="">
+              <xdr:nvGraphicFramePr>
+                <xdr:cNvPr id="23" name="FeatureDough"/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks/>
+                </xdr:cNvGraphicFramePr>
+              </xdr:nvGraphicFramePr>
+              <xdr:xfrm>
+                <a:off x="4010025" y="89660"/>
+                <a:ext cx="3261360" cy="3089362"/>
+              </xdr:xfrm>
+              <a:graphic>
+                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                </a:graphicData>
+              </a:graphic>
+            </xdr:graphicFrame>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="11" name="Group 10"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="8448675" y="638489"/>
+                <a:ext cx="3749040" cy="2549386"/>
+                <a:chOff x="8448675" y="638489"/>
+                <a:chExt cx="3749040" cy="2549386"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="12" name="Rectangle 11"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8448675" y="783949"/>
+                  <a:ext cx="3749040" cy="2379428"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11068051" y="820600"/>
+                  <a:ext cx="1097280" cy="764816"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="3175"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>PASSED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>FAILED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>SKIPPED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>TOTAL</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$2">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="14" name="TextBox 13"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11649074" y="824430"/>
+                  <a:ext cx="495301" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>6</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="51FF21"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$3">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="15" name="TextBox 14"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11658600" y="987701"/>
+                  <a:ext cx="485775" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>1</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$4">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="16" name="TextBox 15"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11668125" y="1142121"/>
+                  <a:ext cx="476249" cy="239936"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>1</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:graphicFrame macro="">
+              <xdr:nvGraphicFramePr>
+                <xdr:cNvPr id="17" name="FeatureDough"/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks/>
+                </xdr:cNvGraphicFramePr>
+              </xdr:nvGraphicFramePr>
+              <xdr:xfrm>
+                <a:off x="8553448" y="638489"/>
+                <a:ext cx="2590801" cy="2549386"/>
+              </xdr:xfrm>
+              <a:graphic>
+                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                </a:graphicData>
+              </a:graphic>
+            </xdr:graphicFrame>
+          </xdr:grpSp>
+        </xdr:grpSp>
       </xdr:grpSp>
+      <xdr:sp macro="" textlink="'DB Data'!$H$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="TextBox 34"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11687174" y="1390650"/>
+            <a:ext cx="476249" cy="258177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{4CC5DA09-291F-4A51-A717-A0B844BAE6B1}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>8</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="'DB Data'!$D$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="TextBox 35"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3400424" y="1390650"/>
+            <a:ext cx="485775" cy="276725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{F6B299D3-9EF8-434E-91FD-E226C33E779B}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>4</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="'DB Data'!$F$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="TextBox 36"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7810500" y="762000"/>
+            <a:ext cx="533399" cy="276725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{E0DBF034-522C-428F-86B0-51B7E09D2269}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>6</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4391,22 +6568,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34191</cdr:x>
+      <cdr:y>0.36713</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.70518</cdr:x>
+      <cdr:y>0.70979</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885824" y="1000125"/>
+          <a:ext cx="941156" cy="933450"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4532,7 +6709,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{2097DC7E-C983-47ED-807E-A75BB41970B4}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4540,7 +6717,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4558,22 +6735,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.34247</cdr:x>
+      <cdr:y>0.3257</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.70491</cdr:x>
+      <cdr:y>0.69836</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1143000" y="1057275"/>
+          <a:ext cx="1209674" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4699,17 +6876,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{D116F15A-412E-40A6-80BD-CB02BCF9F83C}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4725,22 +6902,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.34191</cdr:x>
+      <cdr:y>0.36207</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70588</cdr:x>
+      <cdr:y>0.7</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="885827" y="1000123"/>
+          <a:ext cx="942975" cy="933450"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4866,7 +7043,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{CAC27D7A-61F0-4BF7-8A00-9B87280C3ADF}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4874,7 +7051,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4893,15 +7070,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:colOff>1828801</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4957,15 +7134,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4974,8 +7151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5008,6 +7185,28 @@
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5064,7 +7263,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{1EE62539-4503-47B1-9014-AE0EB5904036}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -5072,11 +7271,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="413809"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{541347F2-B924-4EBD-9016-7D70B52E0A34}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A47243DB-DD84-4781-B539-D3F128684A26}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -5091,22 +7430,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32663</cdr:x>
+      <cdr:y>0.41017</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.69347</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="619125" y="914400"/>
+          <a:ext cx="695325" cy="685801"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5232,17 +7571,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{16DEB938-1884-4D69-9C30-3844EF920FB3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5259,15 +7598,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5325,13 +7664,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5340,8 +7679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5376,6 +7715,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5385,13 +7746,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
@@ -5400,7 +7761,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5430,7 +7791,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
+          <a:fld id="{90FBC278-7B88-49A1-868B-24AA4635DA5C}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -5450,6 +7811,146 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="423333"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{9D8330AA-D40D-4308-B052-A77CB19D543A}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>37044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="608544"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{DFB13DCE-6084-4E13-A2F5-731AC765DAB5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5457,22 +7958,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32995</cdr:x>
+      <cdr:y>0.41927</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="619124" y="914399"/>
+          <a:ext cx="704851" cy="695325"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5598,17 +8099,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{F5B8AB2B-98F8-475E-8BCB-9E2C4111BF3B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5632,12 +8133,35 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Tags"/>
+      <sheetName val="Features"/>
+      <sheetName val="Execution"/>
+      <sheetName val="DB Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5930,9 +8454,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B37:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5944,8 +8468,52 @@
     <col min="6" max="6" customWidth="true" width="70.7109375"/>
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
-  <sheetData/>
-  <sheetProtection sheet="true" password="DE75" scenarios="true" objects="true"/>
+  <sheetData>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="83"/>
+      <c r="G39" s="84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="D109" scenarios="true" objects="true"/>
+  <mergeCells count="4">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5954,7 +8522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J23"/>
+  <dimension ref="B20:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -5964,7 +8532,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="1.42578125"/>
-    <col min="2" max="2" customWidth="true" width="45.85546875"/>
+    <col min="2" max="2" customWidth="true" width="50.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
     <col min="5" max="5" customWidth="true" width="50.7109375"/>
@@ -5973,100 +8541,79 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="B20" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="E21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="58" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="H22" s="59" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="67" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H23" s="68" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
+      <c r="B22" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="90" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H22" s="91" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="I22" s="92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="93" t="n">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6095,8 +8642,7 @@
     <col min="2" max="2" customWidth="true" width="60.7109375"/>
     <col min="3" max="3" customWidth="true" width="12.7109375"/>
     <col min="4" max="4" customWidth="true" width="16.7109375"/>
-    <col min="5" max="11" customWidth="true" width="9.7109375"/>
-    <col min="12" max="12" customWidth="true" width="12.7109375"/>
+    <col min="5" max="13" customWidth="true" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -6104,92 +8650,96 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="B20" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
+      <c r="H21" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="M21" s="53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="74" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="75" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="79" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="K22" s="80" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="L22" s="81"/>
-      <c r="M22" s="82"/>
+      <c r="B22" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="98"/>
+      <c r="G22" s="99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="102" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K22" s="103" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="L22" s="104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" s="105" t="n">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6203,13 +8753,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="1.7109375"/>
+    <col min="2" max="3" customWidth="true" width="30.7109375"/>
+    <col min="4" max="4" customWidth="true" width="45.7109375"/>
+    <col min="5" max="5" customWidth="true" width="75.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="true" password="FBE3" scenarios="true" objects="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6219,7 +8821,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="13.5703125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="22.42578125"/>
@@ -6247,25 +8849,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>2.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>31.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6273,68 +8871,76 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D3" s="0"/>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="F3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="F4" s="0"/>
+      <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4"/>
+      <c r="H4" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n" s="0">
         <f>SUM(D2:D4)</f>
         <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6342,35 +8948,125 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1</v>
+      </c>
+      <c r="H20" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="73"/>
+      <c r="P20" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S20" s="77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T20" s="78" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="91">
   <si>
     <t>Duration</t>
   </si>
@@ -187,22 +187,97 @@
     <t>device</t>
   </si>
   <si>
-    <t>Feb 19, 2024 3:51:35 PM</t>
-  </si>
-  <si>
-    <t>Feb 19, 2024 3:47:33 PM</t>
-  </si>
-  <si>
-    <t>4 m 1.967 s</t>
+    <t>Feb 22, 2024 1:31:00 PM</t>
+  </si>
+  <si>
+    <t>Feb 22, 2024 1:20:22 PM</t>
+  </si>
+  <si>
+    <t>10 m 37.508 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
+    <t>Exam_Center AddEdit Location scenario</t>
+  </si>
+  <si>
+    <t>33.288 s</t>
+  </si>
+  <si>
+    <t>Exam_Center Location feature</t>
+  </si>
+  <si>
+    <t>Checking the Creation of controller User</t>
+  </si>
+  <si>
+    <t>47.272 s</t>
+  </si>
+  <si>
+    <t>Checking the Create Users Functionality</t>
+  </si>
+  <si>
+    <t>Checking the Creation of Proctor User</t>
+  </si>
+  <si>
+    <t>51.984 s</t>
+  </si>
+  <si>
+    <t>Checking the Creation of Examtaker User</t>
+  </si>
+  <si>
+    <t>53.719 s</t>
+  </si>
+  <si>
+    <t>Controller Creating Examinations in Examcenter</t>
+  </si>
+  <si>
+    <t>28.255 s</t>
+  </si>
+  <si>
+    <t>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</t>
+  </si>
+  <si>
+    <t>Creating Schedule for an Examinations</t>
+  </si>
+  <si>
+    <t>52.437 s</t>
+  </si>
+  <si>
+    <t>Enroll the Examination and schedule to the Examtaker</t>
+  </si>
+  <si>
+    <t>41.970 s</t>
+  </si>
+  <si>
+    <t>Create a Time_Slot for the Examination</t>
+  </si>
+  <si>
+    <t>34.279 s</t>
+  </si>
+  <si>
+    <t>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</t>
+  </si>
+  <si>
+    <t>Add the Examataker in a Particular TimeSlot</t>
+  </si>
+  <si>
+    <t>48.419 s</t>
+  </si>
+  <si>
+    <t>Checking the Examcenter Examtaker Assessment Submission Functionality</t>
+  </si>
+  <si>
+    <t>1 m 1.857 s</t>
+  </si>
+  <si>
+    <t>Checking the Examtaker Assessment Submission</t>
+  </si>
+  <si>
     <t>Testing the Controller Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>1 m 32.085 s</t>
+    <t>1 m 1.107 s</t>
   </si>
   <si>
     <t>Checking the bulk upload functionality for All Users</t>
@@ -211,16 +286,28 @@
     <t>Testing the proctor Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>1 m 16.117 s</t>
+    <t>56.467 s</t>
   </si>
   <si>
     <t>Testing the Examtaker Bulk Upload Functionality</t>
   </si>
   <si>
-    <t>1 m 12.834 s</t>
-  </si>
-  <si>
-    <t>4 m 1.121 s</t>
+    <t>55.972 s</t>
+  </si>
+  <si>
+    <t>33.293 s</t>
+  </si>
+  <si>
+    <t>2 m 33.009 s</t>
+  </si>
+  <si>
+    <t>2 m 2.689 s</t>
+  </si>
+  <si>
+    <t>1 m 22.714 s</t>
+  </si>
+  <si>
+    <t>2 m 53.561 s</t>
   </si>
 </sst>
 </file>
@@ -228,7 +315,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="201" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +529,826 @@
       <sz val="11.0"/>
       <b val="true"/>
       <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="00FF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FF0000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF00"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -648,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -877,10 +1784,10 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -895,12 +1802,462 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2048,16 +3405,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$24</c:f>
+              <c:f>Scenarios!$B$22:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>Exam_Center AddEdit Location scenario</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Checking the Creation of controller User</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Checking the Creation of Proctor User</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Checking the Creation of Examtaker User</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Controller Creating Examinations in Examcenter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Creating Schedule for an Examinations</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Enroll the Examination and schedule to the Examtaker</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Create a Time_Slot for the Examination</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Testing the Controller Bulk Upload Functionality</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>Testing the proctor Bulk Upload Functionality</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>Testing the Examtaker Bulk Upload Functionality</c:v>
                 </c:pt>
               </c:strCache>
@@ -2065,16 +3452,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$24</c:f>
+              <c:f>Scenarios!$H$22:$H$34</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2132,16 +3549,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$24</c:f>
+              <c:f>Scenarios!$B$22:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>Exam_Center AddEdit Location scenario</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Checking the Creation of controller User</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Checking the Creation of Proctor User</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Checking the Creation of Examtaker User</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Controller Creating Examinations in Examcenter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Creating Schedule for an Examinations</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Enroll the Examination and schedule to the Examtaker</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Create a Time_Slot for the Examination</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Testing the Controller Bulk Upload Functionality</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>Testing the proctor Bulk Upload Functionality</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>Testing the Examtaker Bulk Upload Functionality</c:v>
                 </c:pt>
               </c:strCache>
@@ -2149,7 +3596,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$24</c:f>
+              <c:f>Scenarios!$J$22:$J$34</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2205,16 +3652,46 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$24</c:f>
+              <c:f>Scenarios!$B$22:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>Exam_Center AddEdit Location scenario</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Checking the Creation of controller User</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Checking the Creation of Proctor User</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Checking the Creation of Examtaker User</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Controller Creating Examinations in Examcenter</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Creating Schedule for an Examinations</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Enroll the Examination and schedule to the Examtaker</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Create a Time_Slot for the Examination</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Add the Examataker in a Particular TimeSlot</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Checking the Examcenter Examtaker Assessment Submission Functionality</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Testing the Controller Bulk Upload Functionality</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>Testing the proctor Bulk Upload Functionality</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>Testing the Examtaker Bulk Upload Functionality</c:v>
                 </c:pt>
               </c:strCache>
@@ -2222,7 +3699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$24</c:f>
+              <c:f>Scenarios!$I$22:$I$34</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2988,10 +4465,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Features!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Exam_Center Location feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Checking the Create Users Functionality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Checking the bulk upload functionality for All Users</c:v>
                 </c:pt>
               </c:strCache>
@@ -2999,10 +4491,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22</c:f>
+              <c:f>Features!$F$22:$F$27</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3060,10 +4567,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Features!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Exam_Center Location feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Checking the Create Users Functionality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Checking the bulk upload functionality for All Users</c:v>
                 </c:pt>
               </c:strCache>
@@ -3071,7 +4593,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22</c:f>
+              <c:f>Features!$H$22:$H$27</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -3127,10 +4649,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Features!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Exam_Center Location feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Checking the Create Users Functionality</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Examcenter Creation of Examinations Schedules and Examtaker Enrollments feature</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FocalPointk12 Exam_Center Create a Time_Slot and Enrolled the Exam Taker to the Time slot</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Checking the Examtaker Assessment Submission</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Checking the bulk upload functionality for All Users</c:v>
                 </c:pt>
               </c:strCache>
@@ -3138,7 +4675,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22</c:f>
+              <c:f>Features!$G$22:$G$27</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -6037,7 +7574,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="95FD" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="B6E7" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6046,7 +7583,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J24"/>
+  <dimension ref="B20:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -6127,10 +7664,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="58" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="H22" s="59" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I22" s="60"/>
       <c r="J22" s="61"/>
@@ -6146,44 +7683,294 @@
         <v>58</v>
       </c>
       <c r="E23" s="65" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F23" s="66" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="67" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="H23" s="68" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="I23" s="69"/>
       <c r="J23" s="70"/>
     </row>
     <row r="24">
       <c r="B24" s="71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="72" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F24" s="75" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="76" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="H24" s="77" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="I24" s="78"/>
       <c r="J24" s="79"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="85" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H25" s="86" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I25" s="87"/>
+      <c r="J25" s="88"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="94" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H26" s="95" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I26" s="96"/>
+      <c r="J26" s="97"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="103" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H27" s="104" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="112" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="H28" s="113" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I28" s="114"/>
+      <c r="J28" s="115"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="120" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="121" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="H29" s="122" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I29" s="123"/>
+      <c r="J29" s="124"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="129" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="130" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H30" s="131" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I30" s="132"/>
+      <c r="J30" s="133"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="135" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="139" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H31" s="140" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I31" s="141"/>
+      <c r="J31" s="142"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="146" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="147" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="148" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H32" s="149" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="152" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="153" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="155" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="156" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="157" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H33" s="158" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I33" s="159"/>
+      <c r="J33" s="160"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="161" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="162" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="165" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="166" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H34" s="167" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I34" s="168"/>
+      <c r="J34" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6199,7 +7986,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:M22"/>
+  <dimension ref="B18:M27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -6279,34 +8066,184 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="83" t="n">
+      <c r="D22" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="173" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="175"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="177" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="178" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K22" s="179" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="L22" s="180"/>
+      <c r="M22" s="181"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="182" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="183" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="185" t="n">
         <v>3.0</v>
       </c>
-      <c r="F22" s="84" t="n">
+      <c r="F23" s="186" t="n">
         <v>3.0</v>
       </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="87" t="s">
+      <c r="G23" s="187"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="88" t="n">
+      <c r="J23" s="190" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K23" s="191" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L23" s="192"/>
+      <c r="M23" s="193"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="194" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="197" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F24" s="198" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="199"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="201" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="202" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K24" s="203" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="L24" s="204"/>
+      <c r="M24" s="205"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="206" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="207" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="208" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="209" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F25" s="210" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G25" s="211"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="213" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="214" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="K25" s="215" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L25" s="216"/>
+      <c r="M25" s="217"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="218" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="219" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="220" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="221" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="222" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="223"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="225" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" s="226" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="K26" s="227" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="L26" s="228"/>
+      <c r="M26" s="229"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="230" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="231" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="232" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="233" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F27" s="234" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G27" s="235"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="237" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="238" t="n">
         <v>24.0</v>
       </c>
-      <c r="K22" s="89" t="n">
+      <c r="K27" s="239" t="n">
         <v>24.0</v>
       </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
+      <c r="L27" s="240"/>
+      <c r="M27" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6370,19 +8307,19 @@
         <v>3</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>24.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6437,21 +8374,21 @@
       </c>
       <c r="D5" t="n" s="0">
         <f>SUM(D2:D4)</f>
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>24.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">

--- a/test-output/Reports/ExcelReport/ExtentExcel.xlsx
+++ b/test-output/Reports/ExcelReport/ExtentExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,39 +12,74 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="13" r:id="rId1"/>
-    <sheet name="Scenarios" sheetId="14" r:id="rId2"/>
-    <sheet name="Tags" sheetId="18" r:id="rId3"/>
-    <sheet name="Features" sheetId="16" r:id="rId4"/>
-    <sheet name="Exceptions" sheetId="19" r:id="rId5"/>
-    <sheet name="Authors" sheetId="20" r:id="rId6"/>
-    <sheet name="Devices" sheetId="21" r:id="rId7"/>
+    <sheet name="Dashboard" sheetId="15" r:id="rId1"/>
+    <sheet name="Scenarios" sheetId="17" r:id="rId2"/>
+    <sheet name="Tags" sheetId="20" r:id="rId3"/>
+    <sheet name="Features" sheetId="19" r:id="rId4"/>
+    <sheet name="Exceptions" sheetId="22" r:id="rId5"/>
+    <sheet name="Authors" sheetId="23" r:id="rId6"/>
+    <sheet name="Devices" sheetId="24" r:id="rId7"/>
     <sheet name="DB Data" sheetId="5" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Chart1" localSheetId="5">[1]Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="6">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="5">[2]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="6">[2]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="4">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="3">[1]Scenarios!#REF!</definedName>
     <definedName name="Chart1" localSheetId="1">Scenarios!#REF!</definedName>
-    <definedName name="Chart1" localSheetId="2">[1]Scenarios!#REF!</definedName>
+    <definedName name="Chart1" localSheetId="2">[2]Scenarios!#REF!</definedName>
     <definedName name="Chart1">#REF!</definedName>
     <definedName name="Chart10" localSheetId="5">#REF!</definedName>
     <definedName name="Chart10" localSheetId="6">#REF!</definedName>
     <definedName name="Chart10">#REF!</definedName>
-    <definedName name="Chart30">#REF!</definedName>
-    <definedName name="Chart49">#REF!</definedName>
     <definedName name="Chart51" localSheetId="6">#REF!</definedName>
     <definedName name="Chart51">#REF!</definedName>
+    <definedName name="Chart71">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mounishsaha</author>
+  </authors>
+  <commentList>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mounishsaha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>Duration</t>
   </si>
@@ -103,6 +138,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>FEATURE STATUS</t>
+  </si>
+  <si>
     <t>Features Total</t>
   </si>
   <si>
@@ -115,34 +153,88 @@
     <t>SCENARIO STATUS</t>
   </si>
   <si>
+    <t>tag1</t>
+  </si>
+  <si>
     <t>Excel Extent Report</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:16 PM</t>
+    <t>TAG</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:14 PM</t>
+    <t>Scenario Passed</t>
   </si>
   <si>
-    <t>Jan 06, 2023 2:45:15 PM</t>
+    <t>Scenario Failed</t>
   </si>
   <si>
-    <t>0.252 s</t>
+    <t>Scenario Skipped</t>
+  </si>
+  <si>
+    <t>Tag Name</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Feature Status</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Scenario Status</t>
+  </si>
+  <si>
+    <t>Step Passed</t>
+  </si>
+  <si>
+    <t>Step Failed</t>
+  </si>
+  <si>
+    <t>Step Skipped</t>
+  </si>
+  <si>
+    <t>FEATURE FAIL SKIP</t>
+  </si>
+  <si>
+    <t>SCENARIO FAIL SKIP</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
   <si>
     <t>Scenario</t>
   </si>
   <si>
+    <t>FAILED &amp; SKIPPED SCENARIOS</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:21 PM</t>
+  </si>
+  <si>
+    <t>Jan 06, 2023 2:45:19 PM</t>
+  </si>
+  <si>
+    <t>0.249 s</t>
+  </si>
+  <si>
+    <t>Feature Fail</t>
+  </si>
+  <si>
+    <t>Scenario Fail</t>
+  </si>
+  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>0.013 s</t>
+    <t>0.016 s</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>0.022 s</t>
+    <t>0.027 s</t>
   </si>
   <si>
     <t>TAG NAME</t>
@@ -151,10 +243,10 @@
     <t>tag</t>
   </si>
   <si>
-    <t>STEP / HOOK TEXT</t>
+    <t>STACKTRACE</t>
   </si>
   <si>
-    <t>STACKTRACE</t>
+    <t>STEP / HOOK TEXT</t>
   </si>
   <si>
     <t>SCENARIO</t>
@@ -170,9 +262,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>FAILED</t>
   </si>
   <si>
     <t>SKIPPED</t>
@@ -200,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +307,36 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,34 +348,40 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -294,12 +419,53 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,142 +554,178 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,24 +776,36 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Features</a:t>
+              <a:t>Features with Failed &amp; Skipped</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> Scenarios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.1929905820595947E-3"/>
-          <c:y val="5.6284335775106678E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -601,10 +815,368 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11780714910636171"/>
-          <c:y val="8.0818739637467149E-2"/>
-          <c:w val="0.76899981252343452"/>
-          <c:h val="0.87885598708448542"/>
+          <c:x val="7.3440412897698315E-2"/>
+          <c:y val="0.10261559944911276"/>
+          <c:w val="0.89710845542622875"/>
+          <c:h val="0.85411987031170589"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$J$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21E5-4428-A15E-036A9644B09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$L$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$L$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21E5-4428-A15E-036A9644B09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$H$20:$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Feature Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$K$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21E5-4428-A15E-036A9644B09D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62483072"/>
+        <c:axId val="62415232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62483072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62415232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62415232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62483072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.33104174160971E-2"/>
+          <c:y val="0.17399131020088512"/>
+          <c:w val="0.93298799578986635"/>
+          <c:h val="0.80271606659122552"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -646,7 +1218,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000001-69CD-4D95-9BCF-D378A2484937}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -671,7 +1243,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000003-69CD-4D95-9BCF-D378A2484937}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -696,10 +1268,39 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEAE-4775-A1C6-116F718DC196}"/>
+                <c16:uniqueId val="{00000005-69CD-4D95-9BCF-D378A2484937}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$C$2:$C$4</c:f>
@@ -726,12 +1327,18 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-CEAE-4775-A1C6-116F718DC196}"/>
+              <c16:uniqueId val="{00000006-69CD-4D95-9BCF-D378A2484937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -760,14 +1367,385 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Authors</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PASSED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKIPPED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Authors!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAILED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Authors!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>author</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Authors!$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5124-4442-80A2-16D405C7E35F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62946688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62968960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62968960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Scenarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62946688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -811,10 +1789,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -884,14 +1862,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000000-F102-4FE7-A7E0-DABD087B37CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -965,7 +1943,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000001-F102-4FE7-A7E0-DABD087B37CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1032,14 +2010,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFAF-4E48-8694-E3C13D5D6545}"/>
+              <c16:uniqueId val="{00000002-F102-4FE7-A7E0-DABD087B37CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1053,11 +2031,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="62946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1067,7 +2045,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="62968960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1075,7 +2053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="62968960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +2086,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="62946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1132,7 +2110,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1162,12 +2140,381 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="0" i="1">
+              <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Scenarios</a:t>
+              <a:t>Scenarios with Failed &amp; Skipped Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8313518273888155E-2"/>
+          <c:y val="0.10274354471012281"/>
+          <c:w val="0.9323117569352708"/>
+          <c:h val="0.8539379810924318"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$R$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Passed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$R$20:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$S$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$T$20:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DB Data'!$T$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$P$20:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scenario Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$S$20:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3CCC-4AEC-8CE3-8A462D799DBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="62860288"/>
+        <c:axId val="62870272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62860288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62870272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62870272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Steps</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="62860288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Features</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1176,8 +2523,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9364481457108926E-3"/>
-          <c:y val="3.2123800120282653E-2"/>
+          <c:x val="1.1527224435590979E-2"/>
+          <c:y val="5.3411103774677782E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1189,10 +2536,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.6498186400440001E-2"/>
-          <c:y val="0.10118873685128098"/>
-          <c:w val="0.87710436725913243"/>
-          <c:h val="0.86336406553156542"/>
+          <c:x val="7.2613864443415166E-2"/>
+          <c:y val="0.11008420605172034"/>
+          <c:w val="0.90409526015130459"/>
+          <c:h val="0.85983853317969527"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1234,7 +2581,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000001-1925-49B6-827A-B853D3337F7F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1259,7 +2606,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000003-1925-49B6-827A-B853D3337F7F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1284,34 +2631,71 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F52A-4A06-BA5F-6C71FCEF3775}"/>
+                <c16:uniqueId val="{00000005-1925-49B6-827A-B853D3337F7F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$E$2:$E$4</c:f>
+              <c:f>'DB Data'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Scenarios Passed</c:v>
+                  <c:v>Features Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenarios Failed</c:v>
+                  <c:v>Features Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenarios Skipped</c:v>
+                  <c:v>Features Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$F$2:$F$4</c:f>
+              <c:f>'DB Data'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1319,7 +2703,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F52A-4A06-BA5F-6C71FCEF3775}"/>
+              <c16:uniqueId val="{00000006-1925-49B6-827A-B853D3337F7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1348,14 +2732,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1379,12 +2763,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+              <a:rPr lang="en-US" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Steps</a:t>
+              <a:t>Scenarios</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1393,8 +2777,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6171728533933258E-3"/>
-          <c:y val="5.4421749273573204E-2"/>
+          <c:x val="2.6557632398753896E-2"/>
+          <c:y val="7.6408787010506206E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1406,10 +2790,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11769966254218223"/>
-          <c:y val="8.4263722654767198E-2"/>
-          <c:w val="0.78142825896762902"/>
-          <c:h val="0.89306054848124394"/>
+          <c:x val="6.4384183285500524E-2"/>
+          <c:y val="6.4419827177763234E-2"/>
+          <c:w val="0.91950658620943415"/>
+          <c:h val="0.90211763644157661"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -1451,7 +2835,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000001-9043-498D-B57C-B9E4CCFA9E88}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1476,7 +2860,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000003-9043-498D-B57C-B9E4CCFA9E88}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1501,42 +2885,79 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-33E3-412A-9233-ED47CE12E57E}"/>
+                <c16:uniqueId val="{00000005-9043-498D-B57C-B9E4CCFA9E88}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:f>'DB Data'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Steps Passed</c:v>
+                  <c:v>Scenarios Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Steps Failed</c:v>
+                  <c:v>Scenarios Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Steps Skipped</c:v>
+                  <c:v>Scenarios Skipped</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:f>'DB Data'!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-33E3-412A-9233-ED47CE12E57E}"/>
+              <c16:uniqueId val="{00000006-9043-498D-B57C-B9E4CCFA9E88}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1565,14 +2986,268 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Steps</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8754798226494428E-3"/>
+          <c:y val="5.9065638181061884E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.4524060319569115E-2"/>
+          <c:y val="0.10094890069649767"/>
+          <c:w val="0.91911729229686112"/>
+          <c:h val="0.86206927760676177"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="matte"/>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="51FF21"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="matte"/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-47B5-4118-A95C-5D61CE0D4ABE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DB Data'!$G$2:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Steps Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Steps Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Steps Skipped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DB Data'!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-47B5-4118-A95C-5D61CE0D4ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="40"/>
+      </c:doughnutChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1598,7 +3273,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Scenarios</a:t>
@@ -1616,9 +3291,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.3309046751669701E-2"/>
-          <c:y val="0.10500003204542271"/>
+          <c:y val="9.7816794160272044E-2"/>
           <c:w val="0.95333333333333337"/>
-          <c:h val="0.85236429602767994"/>
+          <c:h val="0.85929820242151389"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1687,14 +3362,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000000-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1764,7 +3439,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000001-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1791,6 +3466,16 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C270-4FB3-8298-7BD9F9C395E2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1834,7 +3519,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC15-411D-962D-5DCB501C11F3}"/>
+              <c16:uniqueId val="{00000003-C270-4FB3-8298-7BD9F9C395E2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1848,11 +3533,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97185152"/>
-        <c:axId val="97201536"/>
+        <c:axId val="62860288"/>
+        <c:axId val="62870272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97185152"/>
+        <c:axId val="62860288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +3547,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97201536"/>
+        <c:crossAx val="62870272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1870,7 +3555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97201536"/>
+        <c:axId val="62870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +3573,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Steps</a:t>
@@ -1902,7 +3587,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97185152"/>
+        <c:crossAx val="62860288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1925,13 +3610,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1954,7 +3639,7 @@
           <c:yMode val="edge"/>
           <c:x val="2.2858134693485639E-2"/>
           <c:y val="0.17364592842131704"/>
-          <c:w val="0.96715927750410535"/>
+          <c:w val="0.96715927750410513"/>
           <c:h val="0.78524645049290098"/>
         </c:manualLayout>
       </c:layout>
@@ -1997,7 +3682,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000001-96B9-4095-8F86-417028E30CA0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2022,7 +3707,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000003-96B9-4095-8F86-417028E30CA0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2047,10 +3732,39 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+                <c16:uniqueId val="{00000005-96B9-4095-8F86-417028E30CA0}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'DB Data'!$E$2:$E$4</c:f>
@@ -2075,14 +3789,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E9F3-48A9-919D-8B5D3C89A4DA}"/>
+              <c16:uniqueId val="{00000006-96B9-4095-8F86-417028E30CA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2116,14 +3836,14 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2167,10 +3887,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
+          <c:x val="2.8373416084820274E-2"/>
+          <c:y val="9.6685905151971507E-2"/>
+          <c:w val="0.96024825446082229"/>
+          <c:h val="0.86092489769092662"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2240,14 +3960,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000000-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2321,7 +4041,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000001-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2388,14 +4108,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3911-4866-9AC3-280C20776CB8}"/>
+              <c16:uniqueId val="{00000002-6A32-427E-937B-79D02676AA4E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2409,11 +4129,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
+        <c:axId val="62946688"/>
+        <c:axId val="62968960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97122176"/>
+        <c:axId val="62946688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +4143,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
+        <c:crossAx val="62968960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +4151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97123712"/>
+        <c:axId val="62968960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,7 +4184,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
+        <c:crossAx val="62946688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2488,13 +4208,13 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2520,7 +4240,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
@@ -2538,10 +4258,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.3369832880226151E-2"/>
-          <c:y val="9.72480620155039E-2"/>
-          <c:w val="0.95324817070407986"/>
-          <c:h val="0.8601162790697674"/>
+          <c:x val="3.3339410513521725E-2"/>
+          <c:y val="9.8103616813294256E-2"/>
+          <c:w val="0.95329079307201459"/>
+          <c:h val="0.85888563049853373"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2594,7 +4314,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2605,19 +4325,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22</c:f>
+              <c:f>Features!$F$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000000-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2667,7 +4387,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2678,7 +4398,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22</c:f>
+              <c:f>Features!$H$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2687,7 +4407,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000001-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2737,7 +4457,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22</c:f>
+              <c:f>Features!$B$22:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2748,7 +4468,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22</c:f>
+              <c:f>Features!$G$22:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2757,7 +4477,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3689-40C1-A405-579C7890F6E5}"/>
+              <c16:uniqueId val="{00000002-079B-4EB3-B7E1-AA8E780D524B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2771,11 +4491,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="97540352"/>
-        <c:axId val="97550336"/>
+        <c:axId val="62483072"/>
+        <c:axId val="62415232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97540352"/>
+        <c:axId val="62483072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2785,7 +4505,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97550336"/>
+        <c:crossAx val="62415232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2793,7 +4513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97550336"/>
+        <c:axId val="62415232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2812,7 +4532,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1100">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t>Scenarios</a:t>
@@ -2826,7 +4546,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="97540352"/>
+        <c:crossAx val="62483072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -2851,565 +4571,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.3310417416097107E-2"/>
-          <c:y val="0.17399131020088515"/>
-          <c:w val="0.93298799578986624"/>
-          <c:h val="0.80271606659122552"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="6350">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-            <a:scene3d>
-              <a:camera prst="orthographicFront"/>
-              <a:lightRig rig="threePt" dir="t"/>
-            </a:scene3d>
-            <a:sp3d prstMaterial="matte"/>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="51FF21"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln w="6350">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1678-4457-8DD3-1C4694EC7DC1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DB Data'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Features Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Features Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Features Skipped</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DB Data'!$D$2:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1678-4457-8DD3-1C4694EC7DC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="40"/>
-      </c:doughnutChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Authors</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.8329460366640847E-2"/>
-          <c:y val="0.10887593576392122"/>
-          <c:w val="0.96030983733539887"/>
-          <c:h val="0.84848841833351085"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PASSED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="51FF21"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$F$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SKIPPED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Authors!$E$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FAILED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Authors!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>author</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Authors!$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C43D-4700-9C1F-8935523D5E0B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="97122176"/>
-        <c:axId val="97123712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97122176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97123712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="97123712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Scenarios</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="97122176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3417,675 +4579,1604 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="142875"/>
-          <a:ext cx="3749040" cy="777240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Duration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Chart 32"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828924</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472439</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34077</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486774" y="142875"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Start Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Chart 33"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8486775" y="561975"/>
-          <a:ext cx="3749040" cy="365760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>End Time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="152401"/>
-          <a:ext cx="2933700" cy="771524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
-            <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>0.252 s</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3790950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9448800" y="142875"/>
-          <a:ext cx="2800350" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:14 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3809999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9467849" y="561975"/>
-          <a:ext cx="2771775" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
-            <a:rPr lang="en-US" sz="1400" i="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:pPr algn="ctr"/>
-            <a:t>Jan 06, 2023 2:45:15 PM</a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400" i="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="38" name="Group 37"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="190499" y="28576"/>
-          <a:ext cx="12045316" cy="3657600"/>
-          <a:chOff x="171449" y="36548"/>
-          <a:chExt cx="12045316" cy="3399182"/>
+          <a:off x="171449" y="85725"/>
+          <a:ext cx="12058651" cy="3343276"/>
+          <a:chOff x="171449" y="85725"/>
+          <a:chExt cx="12058651" cy="3343276"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="9" name="Group 8"/>
+          <xdr:cNvPr id="32" name="Group 31"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="171449" y="815528"/>
-            <a:ext cx="3749040" cy="2620202"/>
-            <a:chOff x="171449" y="815528"/>
-            <a:chExt cx="3749040" cy="2620202"/>
+            <a:off x="171449" y="85725"/>
+            <a:ext cx="12058651" cy="3343276"/>
+            <a:chOff x="171449" y="85725"/>
+            <a:chExt cx="12058651" cy="3343276"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="24" name="Rectangle 23"/>
+            <xdr:cNvPr id="2" name="Rectangle 1"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="171449" y="952809"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="171450" y="95250"/>
+              <a:ext cx="3749040" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
             </a:lnRef>
             <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+              <a:schemeClr val="accent1"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Duration</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="Rectangle 2"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8458199" y="95250"/>
+              <a:ext cx="3749040" cy="320040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr lvl="0" algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Start Time</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="Rectangle 3"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8467725" y="457200"/>
+              <a:ext cx="3749040" cy="320040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0" i="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>End Time</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$6">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1000125" y="95249"/>
+              <a:ext cx="2924175" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{ED1868E5-AE56-4ACA-8944-337939004EF9}" type="TxLink">
+                <a:rPr lang="en-US" sz="2400" b="1" i="1" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>0.249 s</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="2400" b="1" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="419100" y="815528"/>
-            <a:ext cx="3238500" cy="2620202"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="10" name="Group 9"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4000498" y="36548"/>
-            <a:ext cx="4389120" cy="3390329"/>
-            <a:chOff x="4000498" y="36548"/>
-            <a:chExt cx="4389120" cy="3390329"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$4">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Rectangle 17"/>
-            <xdr:cNvSpPr/>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4000498" y="142772"/>
-              <a:ext cx="4389120" cy="3271713"/>
+              <a:off x="9420225" y="104775"/>
+              <a:ext cx="2781300" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{07321330-A736-45CE-AAA5-68120F007E07}" type="TxLink">
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="4400550" y="36548"/>
-            <a:ext cx="3590925" cy="3390329"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="11" name="Group 10"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="8467725" y="806675"/>
-            <a:ext cx="3749040" cy="2609869"/>
-            <a:chOff x="8467725" y="806675"/>
-            <a:chExt cx="3749040" cy="2609869"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp macro="" textlink=" 'DB Data'!$B$5">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="Rectangle 11"/>
-            <xdr:cNvSpPr/>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8467725" y="952137"/>
-              <a:ext cx="3749040" cy="2464407"/>
+              <a:off x="9420225" y="466725"/>
+              <a:ext cx="2809875" cy="314325"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
-            <a:ln w="6350"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
           </xdr:spPr>
           <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:fillRef>
             <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
+              <a:scrgbClr r="0" g="0" b="0"/>
             </a:effectRef>
             <a:fontRef idx="minor">
               <a:schemeClr val="dk1"/>
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:pPr algn="ctr"/>
+              <a:fld id="{C66D813D-5F81-41CE-8DAE-BBDD038F8F76}" type="TxLink">
+                <a:rPr lang="en-US" sz="1400" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:pPr algn="ctr"/>
+                <a:t>Jan 06, 2023 2:45:19 PM</a:t>
+              </a:fld>
+              <a:endParaRPr lang="en-US" sz="1400" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="17" name="FeatureDough"/>
-            <xdr:cNvGraphicFramePr>
-              <a:graphicFrameLocks/>
-            </xdr:cNvGraphicFramePr>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="8734425" y="806675"/>
-            <a:ext cx="3200400" cy="2602499"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="8" name="Group 7"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="171449" y="85725"/>
+              <a:ext cx="12045316" cy="3343276"/>
+              <a:chOff x="152399" y="89660"/>
+              <a:chExt cx="12045316" cy="3107067"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="9" name="Group 8"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="152399" y="665043"/>
+                <a:ext cx="3749040" cy="2531684"/>
+                <a:chOff x="152399" y="665043"/>
+                <a:chExt cx="3749040" cy="2531684"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="24" name="Rectangle 23"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="152399" y="784621"/>
+                  <a:ext cx="3749040" cy="2379428"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="25" name="Group 24"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="266701" y="665043"/>
+                  <a:ext cx="3611879" cy="2531684"/>
+                  <a:chOff x="266701" y="665043"/>
+                  <a:chExt cx="3611879" cy="2531684"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="26" name="Group 25"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="2781300" y="829451"/>
+                    <a:ext cx="1097280" cy="764816"/>
+                    <a:chOff x="2781300" y="829451"/>
+                    <a:chExt cx="1097280" cy="764816"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="28" name="Rounded Rectangle 27"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="2781300" y="829451"/>
+                      <a:ext cx="1097280" cy="764816"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="roundRect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="3175"/>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="dk1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="lt1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="dk1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>PASSED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>FAILED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>SKIPPED</a:t>
+                      </a:r>
+                    </a:p>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:r>
+                        <a:rPr lang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:t>TOTAL</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$2">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="29" name="TextBox 28"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3390900" y="833283"/>
+                      <a:ext cx="466725" cy="247651"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{41487303-CB05-47E9-B96D-7F5847EFEAA3}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="27F959"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>1</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="27F959"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$3">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="30" name="TextBox 29"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3381375" y="996552"/>
+                      <a:ext cx="485776" cy="247651"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{B77A6D75-C39D-49DE-828E-57821B240FA1}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FF0000"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>2</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="'DB Data'!$D$4">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="31" name="TextBox 30"/>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="3381375" y="1142122"/>
+                      <a:ext cx="485775" cy="257174"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:fld id="{7219BB06-5362-46C7-AE8B-8D4E64C9DED1}" type="TxLink">
+                        <a:rPr lang="en-US" sz="1100" b="0">
+                          <a:solidFill>
+                            <a:srgbClr val="FFFF00"/>
+                          </a:solidFill>
+                        </a:rPr>
+                        <a:pPr algn="ctr"/>
+                        <a:t>1</a:t>
+                      </a:fld>
+                      <a:endParaRPr lang="en-US" sz="1100" b="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFFF00"/>
+                        </a:solidFill>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:graphicFrame macro="">
+                <xdr:nvGraphicFramePr>
+                  <xdr:cNvPr id="27" name="FeatureDough"/>
+                  <xdr:cNvGraphicFramePr>
+                    <a:graphicFrameLocks/>
+                  </xdr:cNvGraphicFramePr>
+                </xdr:nvGraphicFramePr>
+                <xdr:xfrm>
+                  <a:off x="266701" y="665043"/>
+                  <a:ext cx="2590800" cy="2531684"/>
+                </xdr:xfrm>
+                <a:graphic>
+                  <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                    <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+                  </a:graphicData>
+                </a:graphic>
+              </xdr:graphicFrame>
+            </xdr:grpSp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="10" name="Group 9"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="3981448" y="89660"/>
+                <a:ext cx="4389120" cy="3089362"/>
+                <a:chOff x="3981448" y="89660"/>
+                <a:chExt cx="4389120" cy="3089362"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="18" name="Rectangle 17"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3981448" y="98510"/>
+                  <a:ext cx="4389120" cy="3059264"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7134225" y="156698"/>
+                  <a:ext cx="1188720" cy="849796"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="3175"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr lang="en-US" sz="1600" b="1" u="none">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>PASSED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>FAILED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>SKIPPED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>TOTAL</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$2">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="20" name="TextBox 19"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7791450" y="195938"/>
+                  <a:ext cx="533400" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{5E830E56-6EF0-481D-AF4F-B51C1C996EFA}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="51FF21"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$3">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="21" name="TextBox 20"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7791449" y="368060"/>
+                  <a:ext cx="533401" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{BD0EF753-9A18-4975-B169-ECA4EE0CEA9F}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$F$4">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="22" name="TextBox 21"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7800975" y="531332"/>
+                  <a:ext cx="523875" cy="257174"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{A34595C3-6342-4982-8F51-D73860015449}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>2</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:graphicFrame macro="">
+              <xdr:nvGraphicFramePr>
+                <xdr:cNvPr id="23" name="FeatureDough"/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks/>
+                </xdr:cNvGraphicFramePr>
+              </xdr:nvGraphicFramePr>
+              <xdr:xfrm>
+                <a:off x="4010025" y="89660"/>
+                <a:ext cx="3261360" cy="3089362"/>
+              </xdr:xfrm>
+              <a:graphic>
+                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+                </a:graphicData>
+              </a:graphic>
+            </xdr:graphicFrame>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="11" name="Group 10"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="8448675" y="638489"/>
+                <a:ext cx="3749040" cy="2549386"/>
+                <a:chOff x="8448675" y="638489"/>
+                <a:chExt cx="3749040" cy="2549386"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="12" name="Rectangle 11"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="8448675" y="783949"/>
+                  <a:ext cx="3749040" cy="2379428"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="6350"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11068051" y="820600"/>
+                  <a:ext cx="1097280" cy="764816"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="3175"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="lt1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rtlCol="0" anchor="b" anchorCtr="0"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>PASSED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>FAILED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>SKIPPED</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:rPr>
+                    <a:t>TOTAL</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$2">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="14" name="TextBox 13"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11649074" y="824430"/>
+                  <a:ext cx="495301" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{ECACBD74-B5B9-479E-8C2E-C9684999A572}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="51FF21"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>6</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="51FF21"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$3">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="15" name="TextBox 14"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11658600" y="987701"/>
+                  <a:ext cx="485775" cy="247651"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{E24417FB-CCF3-4060-A9AB-23F9E2CDA81A}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>1</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="'DB Data'!$H$4">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="16" name="TextBox 15"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="11668125" y="1142121"/>
+                  <a:ext cx="476249" cy="239936"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:fld id="{04B0E76C-90E2-4732-8606-78D62C393D8A}" type="TxLink">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="FFFF00"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:rPr>
+                    <a:pPr algn="ctr"/>
+                    <a:t>1</a:t>
+                  </a:fld>
+                  <a:endParaRPr lang="en-US" sz="1200" b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFF00"/>
+                    </a:solidFill>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:graphicFrame macro="">
+              <xdr:nvGraphicFramePr>
+                <xdr:cNvPr id="17" name="FeatureDough"/>
+                <xdr:cNvGraphicFramePr>
+                  <a:graphicFrameLocks/>
+                </xdr:cNvGraphicFramePr>
+              </xdr:nvGraphicFramePr>
+              <xdr:xfrm>
+                <a:off x="8553448" y="638489"/>
+                <a:ext cx="2590801" cy="2549386"/>
+              </xdr:xfrm>
+              <a:graphic>
+                <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+                  <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+                </a:graphicData>
+              </a:graphic>
+            </xdr:graphicFrame>
+          </xdr:grpSp>
+        </xdr:grpSp>
       </xdr:grpSp>
+      <xdr:sp macro="" textlink="'DB Data'!$H$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="TextBox 34"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11687174" y="1390650"/>
+            <a:ext cx="476249" cy="258177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{4CC5DA09-291F-4A51-A717-A0B844BAE6B1}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>8</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="'DB Data'!$D$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="TextBox 35"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3400424" y="1390650"/>
+            <a:ext cx="485775" cy="276725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{F6B299D3-9EF8-434E-91FD-E226C33E779B}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>4</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="'DB Data'!$F$5">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="TextBox 36"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7810500" y="762000"/>
+            <a:ext cx="533399" cy="276725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:fld id="{E0DBF034-522C-428F-86B0-51B7E09D2269}" type="TxLink">
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:pPr algn="ctr"/>
+              <a:t>6</a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4103,9 +6194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4140,9 +6231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4170,22 +6261,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35</cdr:x>
-      <cdr:y>0.34014</cdr:y>
+      <cdr:x>0.34191</cdr:x>
+      <cdr:y>0.36713</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.65294</cdr:x>
-      <cdr:y>0.69728</cdr:y>
+      <cdr:x>0.70518</cdr:x>
+      <cdr:y>0.70979</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1133475" y="952503"/>
-          <a:ext cx="981075" cy="1000125"/>
+          <a:off x="885824" y="1000125"/>
+          <a:ext cx="941156" cy="933450"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4311,7 +6402,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
+          <a:fld id="{2097DC7E-C983-47ED-807E-A75BB41970B4}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4319,7 +6410,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4337,22 +6428,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33156</cdr:x>
-      <cdr:y>0.36031</cdr:y>
+      <cdr:x>0.34247</cdr:x>
+      <cdr:y>0.3257</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.68208</cdr:x>
-      <cdr:y>0.70496</cdr:y>
+      <cdr:x>0.70491</cdr:x>
+      <cdr:y>0.69836</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1190625" y="1314450"/>
-          <a:ext cx="1258673" cy="1257300"/>
+          <a:off x="1143000" y="1057275"/>
+          <a:ext cx="1209674" cy="1209675"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4478,17 +6569,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{D116F15A-412E-40A6-80BD-CB02BCF9F83C}" type="TxLink">
+            <a:rPr lang="en-US" sz="3000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="3600" b="1">
+          <a:endParaRPr lang="en-US" sz="3000" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4504,22 +6595,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35119</cdr:x>
-      <cdr:y>0.35374</cdr:y>
+      <cdr:x>0.34191</cdr:x>
+      <cdr:y>0.36207</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.66667</cdr:x>
-      <cdr:y>0.71088</cdr:y>
+      <cdr:x>0.70588</cdr:x>
+      <cdr:y>0.7</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$H$5">
+    <cdr:sp macro="" textlink="'DB Data'!$H$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1123950" y="990599"/>
-          <a:ext cx="1009650" cy="1000125"/>
+          <a:off x="885827" y="1000123"/>
+          <a:ext cx="942975" cy="933450"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4645,7 +6736,7 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{31691118-B83C-4A2D-970E-D212AA344C2F}" type="TxLink">
+          <a:fld id="{CAC27D7A-61F0-4BF7-8A00-9B87280C3ADF}" type="TxLink">
             <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4653,7 +6744,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>75%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2400" b="1">
             <a:solidFill>
@@ -4672,15 +6763,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:colOff>1828801</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4736,15 +6827,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1508761</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150494</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4753,8 +6844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323851" y="180974"/>
-          <a:ext cx="1280160" cy="352426"/>
+          <a:off x="323850" y="180974"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4787,6 +6878,28 @@
               </a:solidFill>
             </a:rPr>
             <a:t>PASSED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4843,7 +6956,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{8D92AF4D-37D8-4C38-8EA4-79D629C4A437}" type="TxLink">
+          <a:fld id="{1EE62539-4503-47B1-9014-AE0EB5904036}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -4851,11 +6964,151 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1200" b="0">
             <a:solidFill>
               <a:srgbClr val="51FF21"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>108787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="413809"/>
+          <a:ext cx="638175" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{541347F2-B924-4EBD-9016-7D70B52E0A34}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1514476</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104219</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$F$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962026" y="589494"/>
+          <a:ext cx="647700" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{A47243DB-DD84-4781-B539-D3F128684A26}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -4870,22 +7123,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32663</cdr:x>
+      <cdr:y>0.41017</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.69347</cdr:x>
+      <cdr:y>0.71781</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$F$5">
+    <cdr:sp macro="" textlink="'DB Data'!$F$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="561975" y="933452"/>
-          <a:ext cx="952500" cy="923924"/>
+          <a:off x="619125" y="914400"/>
+          <a:ext cx="695325" cy="685801"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5011,17 +7264,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{EC401DB1-A780-48C9-8D04-3C77257FD87B}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{16DEB938-1884-4D69-9C30-3844EF920FB3}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>33%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5044,9 +7297,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5075,15 +7328,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1800226</xdr:colOff>
+      <xdr:colOff>1800225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5141,13 +7394,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1451609</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5156,8 +7409,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304799" y="190501"/>
-          <a:ext cx="1280160" cy="361950"/>
+          <a:off x="304799" y="190500"/>
+          <a:ext cx="1280160" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5192,6 +7445,28 @@
             <a:t>PASSED</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FAILED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SKIPPED</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -5201,13 +7476,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114078</xdr:rowOff>
+      <xdr:rowOff>104553</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="'DB Data'!$D$2">
       <xdr:nvSpPr>
@@ -5216,7 +7491,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="228600"/>
+          <a:off x="981075" y="219075"/>
           <a:ext cx="561975" cy="266478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5246,7 +7521,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:fld id="{6831FE4E-352E-4F7B-A3D4-680EF38773CC}" type="TxLink">
+          <a:fld id="{90FBC278-7B88-49A1-868B-24AA4635DA5C}" type="TxLink">
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="51FF21"/>
@@ -5266,6 +7541,146 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>118311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="423333"/>
+          <a:ext cx="552451" cy="266478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{9D8330AA-D40D-4308-B052-A77CB19D543A}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>2</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>37044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1419226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="'DB Data'!$D$4">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="608544"/>
+          <a:ext cx="581026" cy="276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:fld id="{DFB13DCE-6084-4E13-A2F5-731AC765DAB5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:pPr algn="ctr"/>
+            <a:t>1</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1200" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5273,22 +7688,22 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.28095</cdr:x>
-      <cdr:y>0.38583</cdr:y>
+      <cdr:x>0.32995</cdr:x>
+      <cdr:y>0.41927</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.75714</cdr:x>
-      <cdr:y>0.76772</cdr:y>
+      <cdr:x>0.70558</cdr:x>
+      <cdr:y>0.73808</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="'DB Data'!$D$5">
+    <cdr:sp macro="" textlink="'DB Data'!$D$6">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 21"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="602111" y="1142827"/>
-          <a:ext cx="1020535" cy="1131157"/>
+          <a:off x="619124" y="914399"/>
+          <a:ext cx="704851" cy="695325"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -5414,17 +7829,17 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:fld id="{5501BE5E-9668-4CE4-A888-5F85DFC126EE}" type="TxLink">
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
+          <a:fld id="{F5B8AB2B-98F8-475E-8BCB-9E2C4111BF3B}" type="TxLink">
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>1</a:t>
+            <a:t>25%</a:t>
           </a:fld>
-          <a:endParaRPr lang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="en-US" sz="1600" b="1">
             <a:solidFill>
               <a:schemeClr val="bg1"/>
             </a:solidFill>
@@ -5448,12 +7863,35 @@
       <sheetName val="DB Data"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dashboard"/>
+      <sheetName val="Scenarios"/>
+      <sheetName val="Tags"/>
+      <sheetName val="Features"/>
+      <sheetName val="Execution"/>
+      <sheetName val="DB Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5746,9 +8184,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B37:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5760,7 +8198,33 @@
     <col min="6" max="6" width="70.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="58"/>
+      <c r="G38" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5779,7 +8243,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="50.7109375" customWidth="1"/>
@@ -5788,75 +8252,75 @@
   </cols>
   <sheetData>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="B20" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="E21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>43</v>
+      <c r="J21" s="44" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="12">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="B22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="24">
+        <v>3</v>
+      </c>
+      <c r="H22" s="25">
+        <v>3</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5882,75 +8346,75 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="60.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="61"/>
+      <c r="C21" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="F21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="49" t="s">
+      <c r="B25" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="36" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="35" t="s">
-        <v>22</v>
+      <c r="I25" s="49" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5980,8 +8444,7 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="5" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -5989,88 +8452,90 @@
       <c r="E18" s="5"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="B20" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="26" t="s">
+      <c r="H21" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>43</v>
+      <c r="M21" s="53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="18">
-        <v>1</v>
-      </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23">
-        <v>1</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="40"/>
+      <c r="B22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="31">
+        <v>2</v>
+      </c>
+      <c r="F22" s="32">
+        <v>2</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35">
+        <v>6</v>
+      </c>
+      <c r="J22" s="36">
+        <v>6</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6099,21 +8564,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>36</v>
+      <c r="D2" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6129,75 +8595,75 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="60.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="61"/>
+      <c r="C21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="F21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="49" t="s">
+      <c r="B25" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="42" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="35" t="s">
-        <v>22</v>
+      <c r="I25" s="49" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6224,75 +8690,75 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="60.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="B20" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="61"/>
+      <c r="C21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>45</v>
+      <c r="F21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="49" t="s">
+      <c r="B25" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="42" t="s">
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="35" t="s">
-        <v>22</v>
+      <c r="I25" s="49" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6308,12 +8774,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6323,7 +8789,7 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -6351,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -6363,13 +8829,13 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6377,16 +8843,25 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
       <c r="G3" t="s">
         <v>13</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6394,16 +8869,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
       <c r="G4" t="s">
         <v>14</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6411,28 +8895,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <f>SUM(D2:D4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <f>SUM(F2:F4)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <f>SUM(H2:H4)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6440,26 +8924,129 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.33</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="11">
+        <v>3</v>
+      </c>
+      <c r="K20" s="12">
+        <v>2</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="16">
+        <v>3</v>
+      </c>
+      <c r="S20" s="17">
+        <v>2</v>
+      </c>
+      <c r="T20" s="18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>